--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Left</t>
   </si>
@@ -43,16 +43,40 @@
     <t>2NaOH+H2</t>
   </si>
   <si>
-    <t>Fe+O</t>
-  </si>
-  <si>
-    <t>FeO</t>
-  </si>
-  <si>
-    <t>Cu+O</t>
-  </si>
-  <si>
-    <t>CuO</t>
+    <t>2Fe+O2</t>
+  </si>
+  <si>
+    <t>2FeO</t>
+  </si>
+  <si>
+    <t>3Fe+2O2</t>
+  </si>
+  <si>
+    <t>Fe3O4</t>
+  </si>
+  <si>
+    <t>4Fe+3O2</t>
+  </si>
+  <si>
+    <t>2Fe2O3</t>
+  </si>
+  <si>
+    <t>2Cu+O2</t>
+  </si>
+  <si>
+    <t>2CuO</t>
+  </si>
+  <si>
+    <t>2Na+O2</t>
+  </si>
+  <si>
+    <t>Na2O2</t>
+  </si>
+  <si>
+    <t>4Na+O2</t>
+  </si>
+  <si>
+    <t>2Na2O</t>
   </si>
 </sst>
 </file>
@@ -60,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +98,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -81,6 +143,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -89,22 +189,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -112,47 +228,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,67 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -252,181 +269,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,41 +474,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +508,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,8 +561,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,148 +580,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.4444444444444" style="1" customWidth="1"/>
@@ -1147,6 +1164,38 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Left</t>
   </si>
@@ -77,6 +77,69 @@
   </si>
   <si>
     <t>2Na2O</t>
+  </si>
+  <si>
+    <t>2Mg+O2</t>
+  </si>
+  <si>
+    <t>2MgO</t>
+  </si>
+  <si>
+    <t>4P+5O2</t>
+  </si>
+  <si>
+    <t>2P2O5</t>
+  </si>
+  <si>
+    <t>C+O2</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>2C+O2</t>
+  </si>
+  <si>
+    <t>2CO</t>
+  </si>
+  <si>
+    <t>C+2CuO</t>
+  </si>
+  <si>
+    <t>2Cu+CO2</t>
+  </si>
+  <si>
+    <t>3C+2Fe2O3</t>
+  </si>
+  <si>
+    <t>4Fe+3CO2</t>
+  </si>
+  <si>
+    <t>CO2+C</t>
+  </si>
+  <si>
+    <t>2CO+O2</t>
+  </si>
+  <si>
+    <t>2CO2</t>
+  </si>
+  <si>
+    <t>H2O+CO2</t>
+  </si>
+  <si>
+    <t>H2CO3</t>
+  </si>
+  <si>
+    <t>CO+CuO</t>
+  </si>
+  <si>
+    <t>Cu+CO2</t>
+  </si>
+  <si>
+    <t>4Al+3O2</t>
+  </si>
+  <si>
+    <t>2Al2O3</t>
   </si>
 </sst>
 </file>
@@ -85,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,9 +161,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,53 +229,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,40 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,34 +274,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,25 +332,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,157 +494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +541,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,56 +582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +603,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1196,6 +1259,102 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Al" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Left</t>
   </si>
@@ -140,6 +141,30 @@
   </si>
   <si>
     <t>2Al2O3</t>
+  </si>
+  <si>
+    <t>2Al+Fe2O3</t>
+  </si>
+  <si>
+    <t>2Fe+Al2O3</t>
+  </si>
+  <si>
+    <t>8Al+3Fe3O4</t>
+  </si>
+  <si>
+    <t>9Fe+4Al2O3</t>
+  </si>
+  <si>
+    <t>4Al+3MnO2</t>
+  </si>
+  <si>
+    <t>3Mn+2Al2O3</t>
+  </si>
+  <si>
+    <t>2Al+3CuO</t>
+  </si>
+  <si>
+    <t>3Cu+Al2O3</t>
   </si>
 </sst>
 </file>
@@ -147,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +187,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,6 +215,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -176,6 +229,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,14 +243,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,30 +259,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,30 +314,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,37 +363,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,37 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,103 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +587,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,21 +607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,11 +644,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,137 +689,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +833,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1347,12 +1381,110 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.1111111111111" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Left</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Right</t>
   </si>
   <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
     <t>Explosion</t>
   </si>
   <si>
@@ -135,6 +138,42 @@
   </si>
   <si>
     <t>Cu+CO2</t>
+  </si>
+  <si>
+    <t>S+O2</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>SO2+H2O2</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>2SO2+O2</t>
+  </si>
+  <si>
+    <t>2SO3</t>
+  </si>
+  <si>
+    <t>Fe+H2CO3</t>
+  </si>
+  <si>
+    <t>H2+FeCO3</t>
+  </si>
+  <si>
+    <t>SO2+H2O</t>
+  </si>
+  <si>
+    <t>H2SO3</t>
+  </si>
+  <si>
+    <t>2H2SO3+O2</t>
+  </si>
+  <si>
+    <t>2H2SO4</t>
   </si>
   <si>
     <t>4Al+3O2</t>
@@ -172,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -192,6 +231,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -201,65 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,15 +355,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,181 +402,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +611,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -587,15 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -607,6 +648,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,21 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -661,11 +702,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,33 +728,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,97 +767,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,191 +1233,245 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1391,99 +1484,102 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2">
         <v>35</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>30</v>
       </c>
     </row>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,6 +231,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,74 +247,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,19 +314,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,15 +360,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +622,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -652,35 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,145 +716,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1486,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,6 +232,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,36 +315,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,93 +345,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,25 +402,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,79 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,67 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,20 +613,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +645,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -666,30 +670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +688,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="$A27:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1538,7 +1538,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1580,7 +1580,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Al" sheetId="2" r:id="rId2"/>
+    <sheet name="Alloy" sheetId="3" r:id="rId3"/>
+    <sheet name="Burn" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Left</t>
   </si>
@@ -204,6 +206,21 @@
   </si>
   <si>
     <t>3Cu+Al2O3</t>
+  </si>
+  <si>
+    <t>HeatRequire</t>
+  </si>
+  <si>
+    <t>Fe+C</t>
+  </si>
+  <si>
+    <t>2Steel</t>
+  </si>
+  <si>
+    <t>CH4+2O2</t>
+  </si>
+  <si>
+    <t>CO2+2H2O</t>
   </si>
 </sst>
 </file>
@@ -211,9 +228,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -245,10 +262,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,7 +340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,49 +354,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,30 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -360,14 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -375,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,13 +419,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,169 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,11 +634,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,17 +673,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,17 +706,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,26 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -716,149 +739,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +895,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1235,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1486,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1542,7 +1568,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1581,6 +1607,126 @@
       </c>
       <c r="E6" s="3">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8888888888889" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8888888888889" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Al" sheetId="2" r:id="rId2"/>
-    <sheet name="Alloy" sheetId="3" r:id="rId3"/>
-    <sheet name="Burn" sheetId="5" r:id="rId4"/>
+    <sheet name="Basic" sheetId="7" r:id="rId1"/>
+    <sheet name="Alloy" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Left</t>
   </si>
@@ -28,6 +26,12 @@
     <t>Catalyst</t>
   </si>
   <si>
+    <t>HeatRequire</t>
+  </si>
+  <si>
+    <t>ElectricRequire</t>
+  </si>
+  <si>
     <t>Explosion</t>
   </si>
   <si>
@@ -37,18 +41,30 @@
     <t>Electronic</t>
   </si>
   <si>
+    <t>CH4+2O2</t>
+  </si>
+  <si>
+    <t>CO2+2H2O</t>
+  </si>
+  <si>
+    <t>2Na+2H2O</t>
+  </si>
+  <si>
+    <t>2NaOH+H2</t>
+  </si>
+  <si>
+    <t>Fe+H2CO3</t>
+  </si>
+  <si>
+    <t>H2+FeCO3</t>
+  </si>
+  <si>
     <t>2H2+O2</t>
   </si>
   <si>
     <t>2H2O</t>
   </si>
   <si>
-    <t>2Na+2H2O</t>
-  </si>
-  <si>
-    <t>2NaOH+H2</t>
-  </si>
-  <si>
     <t>2Fe+O2</t>
   </si>
   <si>
@@ -160,12 +176,6 @@
     <t>2SO3</t>
   </si>
   <si>
-    <t>Fe+H2CO3</t>
-  </si>
-  <si>
-    <t>H2+FeCO3</t>
-  </si>
-  <si>
     <t>SO2+H2O</t>
   </si>
   <si>
@@ -208,19 +218,34 @@
     <t>3Cu+Al2O3</t>
   </si>
   <si>
-    <t>HeatRequire</t>
-  </si>
-  <si>
-    <t>Fe+C</t>
-  </si>
-  <si>
-    <t>2Steel</t>
-  </si>
-  <si>
-    <t>CH4+2O2</t>
-  </si>
-  <si>
-    <t>CO2+2H2O</t>
+    <t>5Fe+C</t>
+  </si>
+  <si>
+    <t>6Steel</t>
+  </si>
+  <si>
+    <t>3Cu+Sn</t>
+  </si>
+  <si>
+    <t>4Bronze</t>
+  </si>
+  <si>
+    <t>3Cu+Zn</t>
+  </si>
+  <si>
+    <t>4Brass</t>
+  </si>
+  <si>
+    <t>3Cu+Ni</t>
+  </si>
+  <si>
+    <t>4Paktong</t>
+  </si>
+  <si>
+    <t>4Brass+Ni</t>
+  </si>
+  <si>
+    <t>5NickelSilver</t>
   </si>
 </sst>
 </file>
@@ -228,12 +253,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +268,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -257,6 +289,59 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,16 +356,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,37 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -331,16 +393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,30 +423,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,12 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDA69"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,7 +445,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,49 +541,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,132 +643,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -630,6 +668,58 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,8 +757,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,15 +768,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,6 +801,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,7 +832,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,147 +841,153 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,8 +1047,8 @@
     <mruColors>
       <color rgb="00FCAD36"/>
       <color rgb="00F5EBA1"/>
+      <color rgb="00FFDA69"/>
       <color rgb="00FFFFBD"/>
-      <color rgb="00FFDA69"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1259,245 +1346,344 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.4444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8888888888889" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.77777777777778" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.88888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="5">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="5">
+        <v>15</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="5">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1510,222 +1696,102 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.4444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8888888888889" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.77777777777778" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.88888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="39.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="3" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="3">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
     </row>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;Tmp&gt;" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
   <si>
     <t>Formula</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>4Brass+Ni==5NickelSilver</t>
+  </si>
+  <si>
+    <t>2Steel+2H2O+O2==2Fe(OH)2</t>
   </si>
 </sst>
 </file>
@@ -423,9 +426,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -445,7 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,70 +462,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,24 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,10 +500,80 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,6 +583,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -627,19 +630,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,151 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,11 +867,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,16 +916,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,6 +947,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -922,45 +964,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,130 +984,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1769,8 +1772,8 @@
   <sheetPr/>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2613,13 +2616,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88888888888889" style="2"/>
@@ -2689,6 +2692,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;Tmp&gt;" sheetId="8" r:id="rId1"/>
-    <sheet name="Advanced" sheetId="11" r:id="rId2"/>
-    <sheet name="Basic" sheetId="10" r:id="rId3"/>
-    <sheet name="Alloy" sheetId="9" r:id="rId4"/>
+    <sheet name="3rdgen" sheetId="13" r:id="rId2"/>
+    <sheet name="Advanced" sheetId="11" r:id="rId3"/>
+    <sheet name="Basic" sheetId="10" r:id="rId4"/>
+    <sheet name="Alloy" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>Formula</t>
   </si>
@@ -35,6 +36,36 @@
   </si>
   <si>
     <t>Elec</t>
+  </si>
+  <si>
+    <t>N2+O2=2NO</t>
+  </si>
+  <si>
+    <t>2NO+O2=2NO2</t>
+  </si>
+  <si>
+    <t>3NO2+H2O=2HNO3+NO</t>
+  </si>
+  <si>
+    <t>3H2+N2=Fe2O3=2NH3</t>
+  </si>
+  <si>
+    <t>4NH3+5O2=Pt=4NO+6H2O</t>
+  </si>
+  <si>
+    <t>KOH+HNO3==KNO3+H2O</t>
+  </si>
+  <si>
+    <t>2KNO3+S+3C==K2S+N2+3CO2</t>
+  </si>
+  <si>
+    <t>黑火药反应</t>
+  </si>
+  <si>
+    <t>2KCl+2H2O==2KOH+H2+Cl2</t>
+  </si>
+  <si>
+    <t>2Cs+2H2O==H2+2CsOH</t>
   </si>
   <si>
     <t>4Li+O2==2Li2O</t>
@@ -426,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -448,21 +479,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +532,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,19 +554,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,17 +577,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,6 +607,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -545,51 +621,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -630,187 +661,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,17 +898,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,45 +921,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,15 +942,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -964,6 +950,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,145 +1003,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1541,10 +1572,118 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="35.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="3" max="3" width="8.88888888888889" style="3"/>
+    <col min="4" max="4" width="10.2222222222222" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="5"/>
+    <col min="6" max="6" width="8.88888888888889" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1579,7 +1718,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1587,7 +1726,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1595,7 +1734,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1603,7 +1742,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1611,7 +1750,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1619,7 +1758,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1627,7 +1766,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1635,23 +1774,26 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1659,7 +1801,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1667,7 +1809,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1675,7 +1817,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1683,7 +1825,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1691,7 +1833,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1699,7 +1841,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1707,7 +1849,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1715,7 +1857,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1723,7 +1865,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1731,7 +1873,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1739,7 +1881,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1747,7 +1889,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1755,7 +1897,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1767,7 +1909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F106"/>
@@ -1808,7 +1950,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1822,7 +1964,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4">
         <v>12</v>
@@ -1830,7 +1972,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6">
         <v>20</v>
@@ -1838,7 +1980,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1849,22 +1991,22 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1872,92 +2014,92 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4">
         <v>20</v>
@@ -1968,7 +2110,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4">
         <v>10</v>
@@ -1979,7 +2121,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4">
         <v>15</v>
@@ -1990,7 +2132,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4">
         <v>35</v>
@@ -2001,7 +2143,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -2009,7 +2151,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -2017,7 +2159,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
@@ -2025,7 +2167,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2033,7 +2175,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2041,7 +2183,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2049,7 +2191,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2057,7 +2199,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -2065,7 +2207,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2073,7 +2215,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2081,7 +2223,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -2089,7 +2231,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -2097,7 +2239,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2105,7 +2247,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
@@ -2113,7 +2255,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -2121,7 +2263,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -2129,7 +2271,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -2137,7 +2279,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -2145,7 +2287,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -2153,7 +2295,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -2161,7 +2303,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -2169,7 +2311,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -2177,7 +2319,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -2185,7 +2327,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -2193,7 +2335,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -2201,7 +2343,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -2209,7 +2351,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -2217,7 +2359,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -2225,7 +2367,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -2233,7 +2375,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -2241,7 +2383,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -2249,7 +2391,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -2257,7 +2399,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -2265,7 +2407,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -2273,7 +2415,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -2281,7 +2423,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -2289,7 +2431,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -2297,7 +2439,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -2305,7 +2447,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -2313,7 +2455,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -2321,7 +2463,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -2329,7 +2471,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -2337,7 +2479,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -2345,7 +2487,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -2353,7 +2495,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -2361,7 +2503,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -2369,7 +2511,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -2377,7 +2519,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -2385,7 +2527,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -2393,7 +2535,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2">
         <v>2</v>
@@ -2401,7 +2543,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -2409,7 +2551,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -2417,7 +2559,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -2425,7 +2567,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -2433,7 +2575,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -2441,7 +2583,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -2449,7 +2591,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -2457,7 +2599,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -2465,7 +2607,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -2473,7 +2615,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -2481,7 +2623,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -2489,7 +2631,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -2497,7 +2639,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -2505,7 +2647,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -2513,7 +2655,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -2521,7 +2663,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2">
         <v>2</v>
@@ -2529,7 +2671,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
@@ -2537,7 +2679,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -2545,7 +2687,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -2553,7 +2695,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -2561,7 +2703,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -2569,7 +2711,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2">
         <v>2</v>
@@ -2577,7 +2719,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -2585,7 +2727,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -2593,7 +2735,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
@@ -2601,7 +2743,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -2613,13 +2755,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2654,7 +2796,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -2662,7 +2804,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -2670,7 +2812,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -2678,7 +2820,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -2686,7 +2828,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2694,7 +2836,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -38,13 +38,13 @@
     <t>Elec</t>
   </si>
   <si>
-    <t>N2+O2=2NO</t>
-  </si>
-  <si>
-    <t>2NO+O2=2NO2</t>
-  </si>
-  <si>
-    <t>3NO2+H2O=2HNO3+NO</t>
+    <t>N2+O2==2NO</t>
+  </si>
+  <si>
+    <t>2NO+O2==2NO2</t>
+  </si>
+  <si>
+    <t>3NO2+H2O==2HNO3+NO</t>
   </si>
   <si>
     <t>3H2+N2=Fe2O3=2NH3</t>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -478,24 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,52 +494,20 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -571,14 +524,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,37 +621,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -661,13 +661,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,169 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,33 +898,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -940,13 +913,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,17 +958,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,133 +1015,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
